--- a/check_list_0316.xlsx
+++ b/check_list_0316.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
